--- a/projects/proj_data_ex.xlsx
+++ b/projects/proj_data_ex.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarbi\Documents\projects\Hassan\technical\website\git\aliakbar1881.github.io\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBBDF7B-1592-4AB6-9CA1-B52E3C39B464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9C15E0-4FA0-4489-9796-4C7A2B7DC73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="proj_data_ex" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>title</t>
   </si>
@@ -117,6 +118,18 @@
   </si>
   <si>
     <t>کشف تاثیر  داده‌های مخرب</t>
+  </si>
+  <si>
+    <t>سیستم پیشنهاد دهنده با مدل تنبل</t>
+  </si>
+  <si>
+    <t>پیدا کردن یادگیری عمیق و تنبل برای بهینه استفاده در پشنهاد دهنده‌ها. داده‌های مورد ارجاع میتوانند نسبت به تغییر علاقه‌ی کاربر عوض شوند.</t>
+  </si>
+  <si>
+    <t>سیستم پیشنهاد دهنده باتوجه به داده‌ها و اندازه‌گیری دقت مدل.</t>
+  </si>
+  <si>
+    <t>یادگیری تقویتی با انتخاب داده‌های برتر و بازآموزش مدل.</t>
   </si>
 </sst>
 </file>
@@ -456,7 +469,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="A1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="17:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="17:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4686D8-E05A-4F18-A9E1-4FDF1343CC19}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -490,50 +584,30 @@
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="17:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="17:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="Q20" s="1"/>
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DB861D-B217-415B-A3D4-9AF8612854DF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -602,7 +676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174E121F-5278-4F68-A605-27C4F686819F}">
   <dimension ref="A1:H3"/>
   <sheetViews>
